--- a/DATA/reactions/Mol_Reactions_Bu4.xlsx
+++ b/DATA/reactions/Mol_Reactions_Bu4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trunov.sr\Desktop\Work_Model v3.0\DATA\reactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Pyrolysis_in_PFR\DATA\reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39974A6-A929-47B2-B6DC-6C25B76B2352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="375" windowWidth="9765" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -407,14 +408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -427,14 +430,8 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -447,12 +444,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <f>B2/-B3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -465,153 +458,98 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>7000000000000</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>249.7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f>A1+1</f>
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>700000000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f>B6/-B7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>700000000000000</v>
-      </c>
-      <c r="G7">
+      <c r="B11">
         <v>295.89999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A5+1</f>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f>B10/-B11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>4100000000000</v>
-      </c>
-      <c r="G11">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>A9+1</f>
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -624,12 +562,8 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="H14">
-        <f>B14/-B15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -642,10 +576,79 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="F15">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>4100000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A13+1</f>
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
         <v>1640000000000</v>
       </c>
-      <c r="G15">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>261</v>
       </c>
     </row>
